--- a/COVID NFLStats/P/P_aggregate.xlsx
+++ b/COVID NFLStats/P/P_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Sam Martin</t>
+          <t>Mitch Wishnowsky</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>46.03333333333333</v>
+        <v>45.6</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>66.33333333333333</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Sam Martin</t>
+          <t>Mitch Wishnowsky</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>46.73333333333333</v>
+        <v>45.6</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>67.33333333333333</v>
+        <v>66.33333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Sam Martin</t>
+          <t>Mitch Wishnowsky</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.6999999999999957</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>1</v>
+        <v>2.333333333333329</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Mitch Wishnowsky</t>
+          <t>Sam Martin</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -710,16 +710,16 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45.6</v>
+        <v>46.03333333333333</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>64</v>
+        <v>66.33333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Mitch Wishnowsky</t>
+          <t>Sam Martin</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -728,16 +728,16 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45.6</v>
+        <v>46.73333333333333</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>66.33333333333333</v>
+        <v>67.33333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Mitch Wishnowsky</t>
+          <t>Sam Martin</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>0.6999999999999957</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2.333333333333329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -805,48 +805,6 @@
       <c r="D19" s="3" t="n">
         <v>-0.6666666666666714</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Bradley Pinion</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Bradley Pinion</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Bradley Pinion</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
